--- a/grupos/2BLCM - Estadisticos 20202.xlsx
+++ b/grupos/2BLCM - Estadisticos 20202.xlsx
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1324,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -1401,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -1478,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <v>-1</v>
@@ -1940,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -2094,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -2171,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -2248,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -2266,7 +2266,7 @@
         <v>8</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O21">
         <v>-1</v>
@@ -2340,10 +2340,10 @@
         <v>-1</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>5</v>
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2402,7 +2402,7 @@
         <v>5</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <v>5</v>
@@ -2479,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -2571,10 +2571,10 @@
         <v>-1</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>5</v>
@@ -2589,7 +2589,7 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2633,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -2710,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>-1</v>
@@ -2787,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -2805,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U27">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -2941,7 +2941,7 @@
         <v>5</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -2956,7 +2956,7 @@
         <v>-1</v>
       </c>
       <c r="S29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T29">
         <v>6</v>
@@ -2974,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="Y29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3018,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -3033,10 +3033,10 @@
         <v>-1</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30">
         <v>6</v>
@@ -3051,7 +3051,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3095,7 +3095,7 @@
         <v>9</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -3113,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31">
         <v>9</v>
@@ -3172,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O32">
         <v>-1</v>
@@ -3249,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O33">
         <v>-1</v>
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O34">
         <v>-1</v>
@@ -3403,7 +3403,7 @@
         <v>10</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -3480,7 +3480,7 @@
         <v>5</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -3498,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>5</v>
@@ -3557,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -3634,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -3711,7 +3711,7 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O39">
         <v>-1</v>

--- a/grupos/2BLCM - Estadisticos 20202.xlsx
+++ b/grupos/2BLCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -197,15 +197,15 @@
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Rosas Aguilar Claudia Leonor</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
     <t>Flores González Ángel</t>
   </si>
   <si>
@@ -221,9 +221,24 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>ARROYO</t>
   </si>
   <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>CARAZA</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
     <t>CAMARILLO</t>
   </si>
   <si>
@@ -233,9 +248,30 @@
     <t>FIGUEROA</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>LEYVA</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>DE LUNA</t>
   </si>
   <si>
@@ -248,57 +284,171 @@
     <t>MIRAFUENTES</t>
   </si>
   <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
     <t>OSORIO</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>SORIA</t>
   </si>
   <si>
+    <t>CANSINO</t>
+  </si>
+  <si>
     <t>MENDEZ</t>
   </si>
   <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>GAMBOA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
     <t>CORDOVA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>SERRANO</t>
   </si>
   <si>
     <t>CHAVEZ</t>
   </si>
   <si>
+    <t>ROBRES</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>ARENZANO</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>KAREN ESTEPHANY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
     <t>CITLALLI</t>
   </si>
   <si>
+    <t>AMERICA MICHELLE</t>
+  </si>
+  <si>
+    <t>JARED URIEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
     <t>ARIZBET</t>
   </si>
   <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
     <t>REYLI</t>
   </si>
   <si>
     <t>ORLANDO</t>
   </si>
   <si>
+    <t>VALERIA ANGELY</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>SIARI DANAHY</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>ARIADNA</t>
+  </si>
+  <si>
     <t>ELIAN</t>
   </si>
   <si>
+    <t>MARIA MAGDALENA</t>
+  </si>
+  <si>
     <t>IKER</t>
   </si>
   <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
     <t>JOSE ISAAC</t>
   </si>
   <si>
@@ -308,163 +458,13 @@
     <t>JESUS ENRIQUE</t>
   </si>
   <si>
+    <t>RITA ALEJANDRA</t>
+  </si>
+  <si>
     <t>LUZ CLARA</t>
   </si>
   <si>
     <t>MARIANA</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>CARAZA</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GALICIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>CANSINO</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>ROBRES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>ARENZANO</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>KAREN ESTEPHANY</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>AMERICA MICHELLE</t>
-  </si>
-  <si>
-    <t>JARED URIEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>VALERIA ANGELY</t>
-  </si>
-  <si>
-    <t>STEPHANIE</t>
-  </si>
-  <si>
-    <t>SIARI DANAHY</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>YAMILE</t>
-  </si>
-  <si>
-    <t>ALEXA</t>
-  </si>
-  <si>
-    <t>ARIADNA</t>
-  </si>
-  <si>
-    <t>MARIA MAGDALENA</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>RITA ALEJANDRA</t>
   </si>
   <si>
     <t>MARISOL</t>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S4">
         <v>6</v>
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1105,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>9</v>
@@ -1173,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V6">
         <v>6</v>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="X6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>6</v>
@@ -1223,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1241,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1250,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1277,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -1336,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1377,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>5</v>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1481,7 +1481,7 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>8</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -1558,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <v>9</v>
@@ -1567,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1626,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P12">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S12">
         <v>5</v>
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -1712,7 +1712,7 @@
         <v>7</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P13">
         <v>9</v>
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <v>9</v>
@@ -1739,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P14">
         <v>5</v>
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1816,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>5</v>
@@ -1866,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>9</v>
@@ -1875,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <v>9</v>
@@ -1943,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -2020,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>8</v>
@@ -2029,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S17">
         <v>9</v>
@@ -2097,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>9</v>
@@ -2106,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y18">
         <v>9</v>
@@ -2174,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P19">
         <v>7</v>
@@ -2183,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>7</v>
@@ -2251,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -2328,7 +2328,7 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <v>5</v>
@@ -2337,7 +2337,7 @@
         <v>8</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S21">
         <v>9</v>
@@ -2346,7 +2346,7 @@
         <v>6</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2396,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P22">
         <v>5</v>
@@ -2414,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2482,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S23">
         <v>7</v>
@@ -2532,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2550,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -2559,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>5</v>
@@ -2568,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -2577,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2586,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>6</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -2645,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S25">
         <v>6</v>
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>5</v>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="U26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="X26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y26">
         <v>5</v>
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -2790,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2799,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S27">
         <v>5</v>
@@ -2808,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>5</v>
@@ -2867,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S28">
         <v>6</v>
@@ -2894,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="X28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>8</v>
@@ -2935,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>5</v>
@@ -2944,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>5</v>
@@ -2953,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S29">
         <v>5</v>
@@ -2962,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="X29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>5</v>
@@ -2994,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3012,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>5</v>
@@ -3021,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>6</v>
@@ -3030,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <v>9</v>
@@ -3048,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y30">
         <v>6</v>
@@ -3098,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P31">
         <v>8</v>
@@ -3107,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S31">
         <v>8</v>
@@ -3175,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P32">
         <v>5</v>
@@ -3184,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S32">
         <v>8</v>
@@ -3252,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>5</v>
@@ -3261,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S33">
         <v>5</v>
@@ -3329,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>5</v>
@@ -3338,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S34">
         <v>3</v>
@@ -3347,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="U34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V34">
         <v>7</v>
@@ -3356,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="X34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>6</v>
@@ -3406,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <v>7</v>
@@ -3415,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3483,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P36">
         <v>6</v>
@@ -3492,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -3501,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="U36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V36">
         <v>6</v>
@@ -3560,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <v>6</v>
@@ -3569,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S37">
         <v>3</v>
@@ -3637,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -3646,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S38">
         <v>9</v>
@@ -3664,7 +3664,7 @@
         <v>9</v>
       </c>
       <c r="X38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y38">
         <v>9</v>
@@ -3714,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P39">
         <v>9</v>
@@ -3723,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S39">
         <v>6</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3876,30 +3876,30 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>69.44</v>
+        <v>72.22</v>
       </c>
       <c r="G4">
-        <v>11.11</v>
+        <v>27.78</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>30.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -3908,19 +3908,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>27.78</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3940,19 +3940,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>22.22</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4000,7 +4000,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4028,226 +4028,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920378</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920291</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920298</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920300</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920303</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330061460416</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920305</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4286,200 +4066,200 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920285</v>
+        <v>20330051920283</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920288</v>
+        <v>20330051920284</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920378</v>
+        <v>20330051920285</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920291</v>
+        <v>20330051920286</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920298</v>
+        <v>20330051920390</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920300</v>
+        <v>20330051920287</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920302</v>
+        <v>20330051920288</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920303</v>
+        <v>20330051920290</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330061460416</v>
+        <v>20330051920378</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920305</v>
+        <v>20330051920291</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920307</v>
+        <v>20330051920292</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920283</v>
+        <v>20330051920293</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
@@ -4490,13 +4270,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920284</v>
+        <v>20330051920294</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
@@ -4507,13 +4287,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920286</v>
+        <v>20330051920394</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>135</v>
@@ -4524,13 +4304,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920390</v>
+        <v>20330051920295</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
@@ -4541,13 +4321,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920287</v>
+        <v>20330051920296</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>137</v>
@@ -4558,13 +4338,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920290</v>
+        <v>20330051920297</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>138</v>
@@ -4575,13 +4355,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920292</v>
+        <v>20330051920298</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
@@ -4592,13 +4372,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920293</v>
+        <v>20330051920299</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>140</v>
@@ -4609,13 +4389,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920294</v>
+        <v>20330051920300</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>141</v>
@@ -4626,13 +4406,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920394</v>
+        <v>20330051920301</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -4643,13 +4423,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920295</v>
+        <v>20330051920302</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
@@ -4660,13 +4440,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920296</v>
+        <v>20330051920303</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
@@ -4677,13 +4457,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920297</v>
+        <v>19330061460416</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
@@ -4694,13 +4474,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920299</v>
+        <v>20330051920304</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
@@ -4711,13 +4491,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920301</v>
+        <v>20330051920305</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
@@ -4728,13 +4508,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920304</v>
+        <v>20330051920307</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
@@ -4748,10 +4528,10 @@
         <v>20330051920308</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
         <v>149</v>
@@ -4765,10 +4545,10 @@
         <v>20330051920309</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>150</v>
@@ -4782,10 +4562,10 @@
         <v>20330051920310</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>151</v>
@@ -4799,10 +4579,10 @@
         <v>20330051920311</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>152</v>
@@ -4816,10 +4596,10 @@
         <v>20330051920312</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
         <v>153</v>
@@ -4833,10 +4613,10 @@
         <v>20330051920379</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
         <v>154</v>
@@ -4850,10 +4630,10 @@
         <v>20330051920313</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
@@ -4867,10 +4647,10 @@
         <v>20330051920314</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>156</v>
@@ -4884,10 +4664,10 @@
         <v>20330051920316</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>157</v>
@@ -4903,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4938,16 +4718,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920305</v>
+        <v>20330051920310</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4961,45 +4741,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920305</v>
+        <v>20330051920310</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920310</v>
+        <v>20330051920284</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5007,22 +4787,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920310</v>
+        <v>20330051920286</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5030,71 +4810,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920284</v>
+        <v>20330051920305</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920300</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2BLCM - Estadisticos 20202.xlsx
+++ b/grupos/2BLCM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="158">
   <si>
     <t>Materia</t>
   </si>
@@ -191,22 +191,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>Caballero Rosas María Teresa</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
+    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
   </si>
   <si>
     <t>NC</t>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3812,19 +3812,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
       <c r="G2">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3844,19 +3844,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3876,19 +3876,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>72.22</v>
+        <v>77.78</v>
       </c>
       <c r="G4">
-        <v>27.78</v>
+        <v>22.22</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -3908,19 +3908,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>88.89</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>11.11</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3940,19 +3940,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>77.78</v>
+        <v>91.67</v>
       </c>
       <c r="G6">
-        <v>22.22</v>
+        <v>8.33</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4683,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4713,27 +4713,27 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920310</v>
+        <v>20330051920298</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -4741,22 +4741,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920310</v>
+        <v>20330051920298</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4764,19 +4764,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920284</v>
+        <v>20330051920303</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -4787,22 +4787,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920286</v>
+        <v>20330051920303</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4825,9 +4825,147 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="G6">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920286</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920307</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
     </row>
